--- a/pred_ohlcv/54_21/2020-01-26 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 SOC ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-488009.7616</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-532679.7466000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-543104.0174360523</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-530652.2268360524</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-516244.5179360524</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-508973.3945360524</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-510224.3916360524</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-512387.1253360524</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-525031.5860360524</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-504708.8621360525</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-434021.3760360525</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-423231.0778360525</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-478726.2029360524</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-479573.2076360524</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-397948.4158360524</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-546535.9110360524</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-320576.5171360524</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-326424.1599360523</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-316183.8781360523</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-307573.4984360524</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-330259.7646360524</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-340306.1007360524</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-320597.2393360524</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-351687.9529360524</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-337863.0173360524</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-330106.1737360524</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-323405.3057360524</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-316688.0159360524</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-309441.0652360524</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-302194.7065360524</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-311513.4371360524</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-301568.6418360524</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-309708.8928360524</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-316621.5093360524</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-275933.1121302271</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-268278.7925302272</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-279173.6178302272</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-229697.7932302272</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-222078.0179302272</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-213903.1592302272</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-5703.924698993596</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-5703.924698993596</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>36651.7296010064</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>44236.7463010064</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>37762.3172010064</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>46136.0702010064</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>32355.2130010064</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>80099.74840100639</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>63672.3776010064</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-288866.0122989935</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-362793.0175989936</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-441657.5422989936</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>763332.5178466795</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1771159.212723186</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1803057.684623186</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1579362.630823186</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1593536.320523186</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1578431.353823186</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1595010.943723186</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1575106.142523186</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1575106.142523186</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1565581.091323185</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1634055.312223186</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1634055.312223186</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1605067.227723185</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1611466.590823185</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1585617.805323185</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1564465.050023185</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1572715.117923185</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1580963.497123185</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1279358.225023185</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1317821.020723185</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>1772781.702292164</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>1948093.274492164</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2008375.112185832</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2060302.269092164</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>2155817.032092164</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2129327.592392164</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>2278653.183392163</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>2330995.044292164</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2450442.088980871</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2651419.684580871</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2504404.654580871</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2508996.257480871</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2416041.582180871</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>2372783.244780871</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>2347345.732480871</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2336978.516380871</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2348534.623280871</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>2341128.207380871</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>2320883.866380871</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>2336645.780980871</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>2329134.291280871</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>2207519.109680871</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>2207519.109680871</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2270241.519880871</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2278574.671280871</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2270875.977980871</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2233129.781980871</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2210817.664780871</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2254884.40148087</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>3044333.153328114</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>3133987.842528114</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>3140654.202128114</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>3140700.202128114</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>3138523.763728114</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>2823829.610528114</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>2846043.025028114</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2727267.307628114</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2765687.722128114</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2757705.073828114</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2715068.228628114</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>2713679.228628114</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2746898.921928115</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2763930.294328115</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2763930.294328115</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>2742792.858228115</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>2748545.503328115</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>2748545.503328115</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>2738371.539628115</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>2746241.893228115</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>2601161.897828115</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>2735520.720528115</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>2656330.045728114</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>2638746.535128114</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>2656916.020328114</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>2650162.900628114</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>2581664.006128114</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>2581664.006128114</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>3824472.169122776</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>3817763.257622776</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>3875849.313322776</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3850028.751322776</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3617211.579122776</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>4131765.285622776</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>5643931.524446032</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>5990245.918946032</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>5965737.856346033</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>5558203.933946033</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>5573283.699246033</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>5498365.894446033</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>5462986.052846033</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>5433996.963546033</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>5378664.016446033</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>5363843.477746032</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>5066072.736546032</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>5082044.471746032</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>5144522.901246032</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>5113498.926746032</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>5072611.153646032</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>5100337.406346032</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>5083485.526733369</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>5088922.696833368</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>5074275.500433369</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>5045394.116033369</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5035850.578933368</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>4644855.759733369</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>4850334.089833369</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>4862442.096333369</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>4855634.367233369</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>4877407.680333368</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>4934404.985033369</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>5157454.393664418</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>5157454.393664418</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>5120698.496908862</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>5120698.496908862</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>5073876.869914418</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>5016541.983414418</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>4785263.089614418</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>4854473.390314418</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>4847392.783414418</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>4564282.578025056</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>4628955.467925056</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>4748041.069725056</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>4641651.373225056</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>4641651.373225056</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>4658033.436625056</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>4639939.265325056</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>4626826.013125056</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>4712865.361225056</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>4696560.190525057</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>4683164.191625057</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>4641433.775525057</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>2302535.858325058</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>2348120.712025058</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>2332673.898625058</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>1915242.250525058</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 SOC ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-488009.7616</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-532679.7466000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-550435.9525360523</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-530652.2268360524</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-517637.8408360524</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-532382.3894360524</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-516244.5179360524</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-508973.3945360524</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-510224.3916360524</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-502603.2351360524</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-512387.1253360524</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-525031.5860360524</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-504708.8621360525</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-434021.3760360525</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-416284.9452360524</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-529938.5264360524</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-504589.8382360524</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-478726.2029360524</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-479573.2076360524</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-546535.9110360524</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-331297.0256360524</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-307573.4984360524</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-337863.0173360524</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-323202.4709360524</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-332087.9483360524</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-306907.6489360523</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-329657.6946360524</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-323404.6045360524</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-330106.1737360524</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-323405.3057360524</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-316688.0159360524</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-309441.0652360524</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-302194.7065360524</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-311513.4371360524</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-301568.6418360524</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-309708.8928360524</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-316621.5093360524</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-275933.1121302271</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-268278.7925302272</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-279173.6178302272</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-229697.7932302272</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-223240.3227302272</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-231332.2114302272</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-238150.4493302272</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-230294.2282302272</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-223597.3660302272</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-230215.3190302272</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-222078.0179302272</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-213903.1592302272</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-207244.9451302272</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-183069.9917989936</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-337346.8514989936</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-441657.5422989936</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-432292.0897989935</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-424157.0129989936</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>763332.5178466795</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1771159.212723186</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1803057.684623186</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1579362.630823186</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1593536.320523186</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1578431.353823186</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1595010.943723186</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1575106.142523186</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1575106.142523186</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1565581.091323185</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1634055.312223186</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1634055.312223186</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1605067.227723185</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1611466.590823185</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1585617.805323185</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1564465.050023185</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1572715.117923185</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1580963.497123185</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1279358.225023185</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1317821.020723185</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>1772781.702292164</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>1948093.274492164</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2008375.112185832</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2060302.269092164</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>2155817.032092164</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2129327.592392164</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>2278653.183392163</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>2330995.044292164</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2450442.088980871</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2651419.684580871</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2504404.654580871</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>2508996.257480871</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>2416041.582180871</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>2372783.244780871</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>2347345.732480871</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>2336978.516380871</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>2348534.623280871</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>2341128.207380871</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>2320883.866380871</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>2336645.780980871</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>2329134.291280871</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>2207519.109680871</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>2207519.109680871</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>2270241.519880871</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>2278574.671280871</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>2270875.977980871</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>2233129.781980871</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>2210817.664780871</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>2254884.40148087</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>3044333.153328114</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>3133987.842528114</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>3140654.202128114</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>3140700.202128114</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>3138523.763728114</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>2823829.610528114</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>2846043.025028114</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2804932.538228114</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2727267.307628114</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2765687.722128114</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2757705.073828114</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2715068.228628114</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>2713679.228628114</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>2746898.921928115</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2763930.294328115</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2763930.294328115</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>2742792.858228115</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>2748545.503328115</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>2748545.503328115</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>2738371.539628115</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>2746241.893228115</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>2601161.897828115</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>2735520.720528115</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>2656330.045728114</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>2638746.535128114</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>2656916.020328114</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>2650162.900628114</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>2581664.006128114</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>2581664.006128114</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>5211704.353004782</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>5164559.336004782</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>5186962.586804782</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>3824472.169122776</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>3817763.257622776</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>3875849.313322776</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>3850028.751322776</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3829044.571422776</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3617211.579122776</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>4604394.259822776</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>4568427.252022776</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>5334290.432631389</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>5695623.502922776</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>5643931.524446032</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>5990245.918946032</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>5965737.856346033</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>5558203.933946033</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>5573283.699246033</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>5609030.079546033</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>5498365.894446033</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>5462986.052846033</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>5433996.963546033</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>5378664.016446033</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>5363843.477746032</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>5066072.736546032</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>5082044.471746032</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>5144522.901246032</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>5113498.926746032</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>5072611.153646032</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>5100337.406346032</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>5083485.526733369</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>5088922.696833368</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>5074275.500433369</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>5045394.116033369</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5035850.578933368</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>4644855.759733369</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>4850334.089833369</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>4862442.096333369</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>4855634.367233369</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>4877407.680333368</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>4934404.985033369</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>5157454.393664418</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>5157454.393664418</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>5120698.496908862</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>5120698.496908862</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>5073876.869914418</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>5016541.983414418</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>4785263.089614418</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>4854473.390314418</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>4847392.783414418</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>4564282.578025056</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>5015563.220925055</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>4641651.373225056</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>4641651.373225056</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>4639939.265325056</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>4635143.645125057</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>4626826.013125056</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>4696560.190525057</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>2302535.858325058</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>2348120.712025058</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>2332673.898625058</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>1915242.250525058</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
